--- a/Projects/CCNAYARMX/Especializado/Data/CCNayarTemplate_Especializado_1.1.xlsx
+++ b/Projects/CCNAYARMX/Especializado/Data/CCNayarTemplate_Especializado_1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -59,6 +59,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$J$69</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$J$69</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$J$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$69</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="296">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -1196,10 +1197,7 @@
     <t xml:space="preserve">Enfriador-Especializado,Portafolio y Precios-Especializado,Plataformas-Especializado,Comunicacion-Especializado</t>
   </si>
   <si>
-    <t xml:space="preserve">Empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-25</t>
+    <t xml:space="preserve">75-100</t>
   </si>
   <si>
     <t xml:space="preserve">KPI Description</t>
@@ -2037,14 +2035,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="66.6275303643725"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="126.935222672065"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.9514170040486"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="67.2712550607288"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="128.008097165992"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1022" min="11" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
@@ -3858,11 +3856,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.7732793522267"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.9230769230769"/>
     <col collapsed="false" hidden="false" max="9" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.7125506072875"/>
@@ -3984,18 +3982,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="54" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="54" width="60.3076923076923"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="54" width="54.0931174089069"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="54" width="64.5910931174089"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="54" width="92.336032388664"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="54" width="64.5910931174089"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="54" width="95.9797570850202"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="54" width="70.1619433198381"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="54" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="54" width="60.8421052631579"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="54" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="54" width="65.1295546558705"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="54" width="93.1943319838057"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="54" width="65.1295546558705"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="54" width="96.834008097166"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="54" width="70.7004048582996"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="54" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="54" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="54" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="54" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="54" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="54" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="54" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="54" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="54" width="11.6761133603239"/>
@@ -4417,15 +4415,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.5951417004049"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.5991902834008"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="111.939271255061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="75.0890688259109"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="112.902834008097"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="75.7327935222672"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
@@ -4767,8 +4765,8 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4827,7 +4825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="96.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="93" t="n">
         <v>26</v>
       </c>
@@ -4847,10 +4845,10 @@
         <v>97</v>
       </c>
       <c r="G2" s="87" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H2" s="87" t="s">
-        <v>281</v>
+        <v>170</v>
       </c>
       <c r="I2" s="87"/>
       <c r="J2" s="84"/>
@@ -4861,7 +4859,7 @@
         <v>172</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O2" s="81" t="s">
         <v>44</v>
@@ -4895,13 +4893,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.0607287449393"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.7773279352227"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="48.2024291497976"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="55.2753036437247"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.0971659919028"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="55.7004048582996"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -4916,7 +4914,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E1" s="38" t="s">
         <v>6</v>
@@ -4925,25 +4923,25 @@
         <v>174</v>
       </c>
       <c r="G1" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="H1" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="I1" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="J1" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="K1" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="L1" s="38" t="s">
         <v>288</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="M1" s="38" t="s">
         <v>289</v>
-      </c>
-      <c r="M1" s="38" t="s">
-        <v>290</v>
       </c>
       <c r="N1" s="38" t="s">
         <v>8</v>
@@ -4972,19 +4970,19 @@
         <v>185</v>
       </c>
       <c r="G2" s="94" t="s">
+        <v>290</v>
+      </c>
+      <c r="H2" s="94" t="s">
         <v>291</v>
       </c>
-      <c r="H2" s="94" t="s">
+      <c r="I2" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="I2" s="94" t="s">
+      <c r="J2" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>294</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>295</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>171</v>
@@ -5017,14 +5015,14 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="8" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5089,7 +5087,7 @@
         <v>84</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H2" s="42" t="s">
         <v>193</v>
@@ -5131,12 +5129,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.8461538461539"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.2753036437247"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.9595141700405"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="66.6275303643725"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="67.2712550607288"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1023" min="16" style="0" width="9.10526315789474"/>
@@ -5309,21 +5307,21 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="82.4817813765182"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="83.1255060728745"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="64.5910931174089"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.4534412955466"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="77.0202429149798"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="65.1295546558705"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.8825910931174"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="77.6599190283401"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="46.5951417004049"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -5664,14 +5662,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="27.9595141700405"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="38.3481781376518"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -5801,11 +5799,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="76.3765182186235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="77.0202429149798"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="60.8421052631579"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="172.890688259109"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="61.3805668016194"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="174.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -6020,14 +6018,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="54" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="54" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="54" width="60.8421052631579"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="54" width="55.5951417004049"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="54" width="75.0890688259109"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="54" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="54" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="54" width="61.3805668016194"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="54" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="54" width="75.7327935222672"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="54" width="80.3400809716599"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="54" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="54" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="54" width="101.761133603239"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="54" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="54" width="102.728744939271"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="54" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="54" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="54" width="13.3886639676113"/>
@@ -6510,20 +6508,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="60.3076923076923"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.3441295546559"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="64.5910931174089"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="92.336032388664"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="68.3400809716599"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="49.7044534412956"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="60.8421052631579"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.7732793522267"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="65.1295546558705"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="93.1943319838057"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="68.8785425101215"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="50.1336032388664"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="35.0283400809717"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
@@ -6737,19 +6735,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.2064777327935"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.1740890688259"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="67.4858299595142"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="68.0202429149798"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -6946,9 +6944,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="65.0202429149798"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="65.5587044534413"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="31.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/Projects/CCNAYARMX/Especializado/Data/CCNayarTemplate_Especializado_1.1.xlsx
+++ b/Projects/CCNAYARMX/Especializado/Data/CCNayarTemplate_Especializado_1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,6 @@
     <sheet name="Scoring" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="Share of Empty" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="Availability Combo" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Scoring Combo" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$J$69</definedName>
@@ -60,6 +59,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$J$69</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$J$69</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$69</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="295">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -525,6 +526,38 @@
     <t xml:space="preserve">Bloques NCBs 25%-Especializado</t>
   </si>
   <si>
+    <t xml:space="preserve">Puerta Dedicada - NCBs-Especializado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediano,Grande</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Opción 4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF595959"/>
+        <rFont val="VAG Rounded Std Light"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">¿Respeto y acomodo al 100? ¿Hay enfriador dedicado?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Acomodo KPI must Pass and Respeto KPI must pass and also have Dedicated Cooler</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chico,Mediano,Grande</t>
   </si>
   <si>
@@ -633,9 +666,6 @@
     <t xml:space="preserve">Agua Saborizada-Especializado</t>
   </si>
   <si>
-    <t xml:space="preserve">Mediano,Grande</t>
-  </si>
-  <si>
     <t xml:space="preserve">¿Tiene todos los empaques por tamaño de cliente de la categoría en frío o en ambiente?</t>
   </si>
   <si>
@@ -775,38 +805,6 @@
   </si>
   <si>
     <t xml:space="preserve">La plataforma esta libre de objetos diferentes al portafolio valido-Nutricion?-Especializado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puerta Dedicada - NCBs-Especializado</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Opción 4: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF595959"/>
-        <rFont val="VAG Rounded Std Light"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">¿Respeto y acomodo al 100? ¿Hay enfriador dedicado?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Scoring Combo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acomodo KPI must Pass and Respeto KPI must pass and also have Dedicated Cooler</t>
   </si>
   <si>
     <t xml:space="preserve">Comunicacion-Especializado</t>
@@ -1173,10 +1171,13 @@
     <t xml:space="preserve">Enfriador Rojo - Acomodo-Especializado,Categorizador - Acomodo-Especializado,Enfriador Rojo y Categorizador - Acomodo-Especializado</t>
   </si>
   <si>
+    <t xml:space="preserve">Respeto-Especializado,Acomodo por Bloques-Especializado</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enfriador Rojo - NCBs-Especializado,Categorizador - NCBs-Especializado,Enfriador Rojo y Categorizador - NCBs-Especializado,Puerta Dedicada - NCBs-Especializado</t>
   </si>
   <si>
-    <t xml:space="preserve">Acomodo por Bloques,Respeto</t>
+    <t xml:space="preserve">Acomodo por Bloques-Especializado,Respeto-Especializado</t>
   </si>
   <si>
     <t xml:space="preserve">Primera posicion-Especializado,Respeto-Especializado,SOCI-Especializado,Cap. Fria-Especializado,Acomodo por Bloques-Especializado,Bloques NCBs 25%-Especializado,Llenado 75%-Especializado</t>
@@ -1237,9 +1238,6 @@
   </si>
   <si>
     <t xml:space="preserve">COLAS;5,Frutales;2,NCB'S;3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respeto-Especializado,Acomodo por Bloques-Especializado</t>
   </si>
 </sst>
 </file>
@@ -1550,7 +1548,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="96">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1611,14 +1609,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1899,6 +1897,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1929,18 +1931,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2026,23 +2016,23 @@
   </sheetPr>
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A64" activeCellId="0" sqref="A64"/>
+      <selection pane="bottomLeft" activeCell="F29" activeCellId="1" sqref="J5:J6 F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.9514170040486"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="67.2712550607288"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="128.008097165992"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.914979757085"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="68.3400809716599"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="130.364372469636"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1022" min="11" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
@@ -2689,803 +2679,805 @@
       </c>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="13" t="n">
-        <v>9</v>
-      </c>
-      <c r="D26" s="4" t="s">
+    <row r="26" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="C26" s="13"/>
+      <c r="D26" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="E26" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="G26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="10"/>
+      <c r="H26" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="I26" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J27" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="n">
+    <row r="28" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="14" t="n">
         <v>22</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="n">
-        <v>23</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>83</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="15" t="s">
-        <v>88</v>
+      <c r="D28" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="E28" s="13"/>
-      <c r="F28" s="18" t="s">
-        <v>89</v>
+      <c r="F28" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>88</v>
+      <c r="A29" s="14" t="n">
+        <v>23</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="13" t="s">
-        <v>91</v>
+      <c r="D29" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="18" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="n">
-        <v>24</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>83</v>
+    <row r="30" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="16" t="s">
-        <v>93</v>
+      <c r="F30" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="G30" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="14" t="n">
+        <v>24</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="10"/>
-    </row>
-    <row r="31" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14" t="n">
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="14" t="n">
         <v>26</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="4" t="n">
+      <c r="C32" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I31" s="10" t="s">
+      <c r="D32" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J32" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="n">
+    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="14" t="n">
         <v>27</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="4" t="n">
+      <c r="C33" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4" t="s">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-    </row>
-    <row r="33" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="n">
+      <c r="H33" s="4"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+    </row>
+    <row r="34" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="14" t="n">
         <v>28</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="13" t="n">
+      <c r="B34" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="H33" s="21" t="s">
+      <c r="D34" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="I33" s="22" t="s">
+      <c r="E34" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="I34" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J33" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14"/>
-      <c r="B34" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-    </row>
-    <row r="35" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="n">
-        <v>29</v>
-      </c>
+      <c r="J34" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="14"/>
       <c r="B35" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="13" t="n">
-        <v>8</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C35" s="13"/>
       <c r="D35" s="13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="I35" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="J35" s="22" t="s">
-        <v>104</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F35" s="21"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
     </row>
     <row r="36" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="14" t="n">
         <v>29</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C36" s="13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D36" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" s="21" t="s">
         <v>106</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>103</v>
       </c>
       <c r="I36" s="22" t="s">
         <v>44</v>
       </c>
       <c r="J36" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="14" t="n">
+        <v>29</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" s="20" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14"/>
-      <c r="B37" s="13" t="s">
+      <c r="G37" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-    </row>
-    <row r="38" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="n">
+      <c r="I37" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="14"/>
+      <c r="B38" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="21"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+    </row>
+    <row r="39" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="13" t="n">
+      <c r="B39" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="G38" s="17" t="s">
+      <c r="D39" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J39" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="14"/>
+      <c r="B40" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="21"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+    </row>
+    <row r="41" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="14" t="n">
+        <v>31</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="H38" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I38" s="22" t="s">
+      <c r="C41" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I41" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J38" s="22" t="s">
+      <c r="J41" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="14"/>
+      <c r="B42" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="21"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+    </row>
+    <row r="43" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="14" t="n">
+        <v>32</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="20" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14"/>
-      <c r="B39" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-    </row>
-    <row r="40" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14" t="n">
-        <v>31</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="G40" s="17" t="s">
+      <c r="G43" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I43" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J43" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="14"/>
+      <c r="B44" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" s="21"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+    </row>
+    <row r="45" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="B45" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="H40" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I40" s="22" t="s">
+      <c r="C45" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I45" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J40" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14"/>
-      <c r="B41" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-    </row>
-    <row r="42" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14" t="n">
-        <v>32</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="H42" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I42" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="J42" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14"/>
-      <c r="B43" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-    </row>
-    <row r="44" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14" t="n">
-        <v>33</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="H44" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I44" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="J44" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="14"/>
-      <c r="B45" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
+      <c r="J45" s="22" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14" t="n">
-        <v>34</v>
-      </c>
+      <c r="A46" s="14"/>
       <c r="B46" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" s="13" t="n">
-        <v>7</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C46" s="13"/>
       <c r="D46" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F46" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I46" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="J46" s="22" t="s">
-        <v>104</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F46" s="21"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
     </row>
     <row r="47" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="14" t="n">
         <v>34</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C47" s="13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I47" s="22" t="s">
         <v>44</v>
       </c>
       <c r="J47" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="14" t="n">
+        <v>34</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" s="20" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14"/>
-      <c r="B48" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F48" s="21"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
+      <c r="G48" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I48" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J48" s="22" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14" t="n">
-        <v>35</v>
-      </c>
+      <c r="A49" s="14"/>
       <c r="B49" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" s="13" t="n">
-        <v>8</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="C49" s="13"/>
       <c r="D49" s="13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="H49" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I49" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="J49" s="22" t="s">
-        <v>104</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="F49" s="21"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
     </row>
     <row r="50" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="14" t="n">
         <v>35</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C50" s="13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I50" s="22" t="s">
         <v>44</v>
       </c>
       <c r="J50" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="14" t="n">
+        <v>35</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F51" s="20" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14"/>
-      <c r="B51" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-    </row>
-    <row r="52" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
+      <c r="G51" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H51" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I51" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J51" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="14"/>
+      <c r="B52" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F52" s="21"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+    </row>
+    <row r="53" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="4" t="n">
+      <c r="B53" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H52" s="3" t="s">
+      <c r="D53" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I52" s="10" t="s">
+      <c r="E53" s="4"/>
+      <c r="F53" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I53" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="10" t="s">
+      <c r="J53" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
+    <row r="54" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B53" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C53" s="23" t="n">
+      <c r="B54" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="23" t="n">
         <v>25</v>
       </c>
-      <c r="D53" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23" t="s">
+      <c r="D54" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H53" s="23"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-    </row>
-    <row r="54" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14" t="n">
+      <c r="H54" s="23"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+    </row>
+    <row r="55" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="14" t="n">
         <v>38</v>
       </c>
-      <c r="B54" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54" s="13" t="n">
+      <c r="B55" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="D54" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="H54" s="13"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-    </row>
-    <row r="55" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="14" t="n">
-        <v>39</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55" s="25"/>
-      <c r="D55" s="21" t="s">
-        <v>130</v>
+      <c r="D55" s="13" t="s">
+        <v>131</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>131</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F55" s="13"/>
       <c r="G55" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="H55" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="I55" s="26"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="22"/>
       <c r="J55" s="22"/>
     </row>
     <row r="56" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="14" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="13"/>
+        <v>131</v>
+      </c>
+      <c r="C56" s="25"/>
       <c r="D56" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F56" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="E56" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F56" s="21" t="s">
+      <c r="G56" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="H56" s="21" t="s">
         <v>136</v>
@@ -3493,25 +3485,25 @@
       <c r="I56" s="26"/>
       <c r="J56" s="22"/>
     </row>
-    <row r="57" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="14" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="21" t="s">
         <v>137</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F57" s="21" t="s">
         <v>138</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H57" s="21" t="s">
         <v>139</v>
@@ -3519,25 +3511,25 @@
       <c r="I57" s="26"/>
       <c r="J57" s="22"/>
     </row>
-    <row r="58" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="14" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="21" t="s">
         <v>140</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F58" s="21" t="s">
         <v>141</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H58" s="21" t="s">
         <v>142</v>
@@ -3547,73 +3539,73 @@
     </row>
     <row r="59" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="14" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="D59" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="21" t="s">
         <v>143</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F59" s="21"/>
+        <v>85</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>144</v>
+      </c>
       <c r="G59" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="H59" s="21"/>
+        <v>135</v>
+      </c>
+      <c r="H59" s="21" t="s">
+        <v>145</v>
+      </c>
       <c r="I59" s="26"/>
       <c r="J59" s="22"/>
     </row>
-    <row r="60" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="14" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="21" t="s">
-        <v>144</v>
+        <v>130</v>
+      </c>
+      <c r="C60" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F60" s="21" t="s">
-        <v>131</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F60" s="21"/>
       <c r="G60" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="H60" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="H60" s="21"/>
       <c r="I60" s="26"/>
       <c r="J60" s="22"/>
     </row>
-    <row r="61" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="14" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C61" s="21"/>
+        <v>146</v>
+      </c>
+      <c r="C61" s="13"/>
       <c r="D61" s="21" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="G61" s="17" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="H61" s="21" t="s">
         <v>136</v>
@@ -3623,23 +3615,23 @@
     </row>
     <row r="62" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="14" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C62" s="21"/>
       <c r="D62" s="21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F62" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G62" s="17" t="s">
         <v>135</v>
-      </c>
-      <c r="G62" s="17" t="s">
-        <v>132</v>
       </c>
       <c r="H62" s="21" t="s">
         <v>139</v>
@@ -3647,25 +3639,25 @@
       <c r="I62" s="26"/>
       <c r="J62" s="22"/>
     </row>
-    <row r="63" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="14" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C63" s="13"/>
+        <v>146</v>
+      </c>
+      <c r="C63" s="21"/>
       <c r="D63" s="21" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H63" s="21" t="s">
         <v>142</v>
@@ -3673,46 +3665,44 @@
       <c r="I63" s="26"/>
       <c r="J63" s="22"/>
     </row>
-    <row r="64" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="14" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="C64" s="13"/>
-      <c r="D64" s="13" t="s">
-        <v>148</v>
+      <c r="D64" s="21" t="s">
+        <v>150</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>149</v>
+        <v>85</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="I64" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J64" s="10"/>
+        <v>135</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="I64" s="26"/>
+      <c r="J64" s="22"/>
     </row>
     <row r="65" s="27" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
         <v>48</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>10</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -3728,29 +3718,29 @@
         <v>49</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C66" s="4" t="n">
         <v>3</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G66" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="H66" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>44</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3758,29 +3748,29 @@
         <v>50</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C67" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G67" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H67" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>44</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3788,13 +3778,13 @@
         <v>51</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -3814,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E69" s="30"/>
       <c r="F69" s="3"/>
@@ -3849,18 +3839,18 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="J5:J6 D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.7732793522267"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="9" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.7125506072875"/>
@@ -3885,16 +3875,16 @@
         <v>6</v>
       </c>
       <c r="F1" s="78" t="s">
+        <v>256</v>
+      </c>
+      <c r="G1" s="78" t="s">
         <v>257</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="H1" s="78" t="s">
         <v>258</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="I1" s="78" t="s">
         <v>259</v>
-      </c>
-      <c r="I1" s="78" t="s">
-        <v>260</v>
       </c>
       <c r="J1" s="78" t="s">
         <v>8</v>
@@ -3903,7 +3893,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="78" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3911,19 +3901,19 @@
         <v>38</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C2" s="79" t="n">
         <v>2</v>
       </c>
       <c r="D2" s="79" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E2" s="79" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F2" s="79" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G2" s="80"/>
       <c r="H2" s="80"/>
@@ -3937,19 +3927,19 @@
         <v>43</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C3" s="79" t="n">
         <v>8</v>
       </c>
       <c r="D3" s="82" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E3" s="79" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F3" s="83" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G3" s="84"/>
       <c r="H3" s="80"/>
@@ -3976,24 +3966,24 @@
   </sheetPr>
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="J5:J6 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="54" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="54" width="60.8421052631579"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="54" width="54.5222672064777"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="54" width="65.1295546558705"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="54" width="93.1943319838057"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="54" width="65.1295546558705"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="54" width="96.834008097166"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="54" width="70.7004048582996"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="54" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="54" width="61.8056680161943"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="54" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="54" width="66.1983805668016"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="54" width="94.8016194331984"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="54" width="66.1983805668016"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="54" width="98.4412955465587"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="54" width="71.8785425101215"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="54" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="54" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="54" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="54" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="54" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="54" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="54" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="54" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="54" width="11.6761133603239"/>
@@ -4020,10 +4010,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -4032,19 +4022,19 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>8</v>
@@ -4053,7 +4043,7 @@
         <v>9</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4061,42 +4051,42 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C2" s="13" t="n">
         <v>2</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>263</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>264</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M2" s="85"/>
       <c r="N2" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O2" s="85"/>
       <c r="P2" s="85" t="s">
         <v>44</v>
       </c>
       <c r="Q2" s="85" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="R2" s="85"/>
     </row>
@@ -4105,42 +4095,42 @@
         <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C3" s="13" t="n">
         <v>5</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F3" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>263</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>264</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M3" s="85"/>
       <c r="N3" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O3" s="85"/>
       <c r="P3" s="85" t="s">
         <v>44</v>
       </c>
       <c r="Q3" s="85" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="R3" s="85"/>
     </row>
@@ -4149,42 +4139,42 @@
         <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C4" s="13" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F4" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>263</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>264</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M4" s="85"/>
       <c r="N4" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O4" s="85"/>
       <c r="P4" s="85" t="s">
         <v>44</v>
       </c>
       <c r="Q4" s="85" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="R4" s="85"/>
     </row>
@@ -4193,42 +4183,42 @@
         <v>31</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C5" s="13" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F5" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>263</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>264</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M5" s="85"/>
       <c r="N5" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O5" s="85"/>
       <c r="P5" s="85" t="s">
         <v>44</v>
       </c>
       <c r="Q5" s="85" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="R5" s="85"/>
     </row>
@@ -4237,42 +4227,42 @@
         <v>32</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C6" s="13" t="n">
         <v>2</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F6" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>263</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>264</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M6" s="85"/>
       <c r="N6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O6" s="85"/>
       <c r="P6" s="85" t="s">
         <v>44</v>
       </c>
       <c r="Q6" s="85" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="R6" s="85"/>
     </row>
@@ -4281,37 +4271,37 @@
         <v>33</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C7" s="13" t="n">
         <v>3</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F7" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="I7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>265</v>
-      </c>
       <c r="N7" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P7" s="85" t="s">
         <v>44</v>
       </c>
       <c r="Q7" s="85" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4319,37 +4309,37 @@
         <v>34</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C8" s="13" t="n">
         <v>4</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F8" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="I8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>265</v>
-      </c>
       <c r="N8" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P8" s="85" t="s">
         <v>44</v>
       </c>
       <c r="Q8" s="85" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4357,37 +4347,37 @@
         <v>35</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C9" s="13" t="n">
         <v>5</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F9" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="I9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>265</v>
-      </c>
       <c r="N9" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P9" s="85" t="s">
         <v>44</v>
       </c>
       <c r="Q9" s="85" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4406,28 +4396,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J5:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.0242914979757"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="112.902834008097"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="75.7327935222672"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.8785425101215"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="114.939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="77.1255060728745"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4444,31 +4434,34 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>200</v>
+      <c r="N1" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4485,25 +4478,26 @@
         <v>11</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="86" t="s">
+      <c r="H2" s="86" t="s">
+        <v>268</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="K2" s="5"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N2" s="3"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>5</v>
       </c>
@@ -4517,22 +4511,23 @@
         <v>24</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="I3" s="11"/>
+      <c r="I3" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="J3" s="11"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
@@ -4547,205 +4542,246 @@
       <c r="D4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="I4" s="3"/>
+      <c r="H4" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10" t="s">
+      <c r="K4" s="3"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="10"/>
-    </row>
-    <row r="5" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>21</v>
-      </c>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="K5" s="42"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="44"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="87" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="H6" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="I5" s="10" t="s">
+      <c r="I6" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="J5" s="10" t="n">
+      <c r="K6" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="L6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="10"/>
-    </row>
-    <row r="6" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="4" t="n">
+      <c r="B7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="10"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-    </row>
-    <row r="8" s="27" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" s="27" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="2" t="n">
+      <c r="B9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D8" s="80" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="80" t="s">
+      <c r="D9" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="80"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="80" t="s">
+      <c r="H9" s="80" t="s">
         <v>278</v>
       </c>
-      <c r="H8" s="80" t="s">
+      <c r="I9" s="80" t="s">
         <v>276</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" s="80" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="80" t="s">
-        <v>279</v>
-      </c>
-      <c r="H9" s="80" t="s">
-        <v>276</v>
-      </c>
-      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="80"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="80" t="s">
+        <v>279</v>
+      </c>
+      <c r="I10" s="80" t="s">
+        <v>276</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="89" t="n">
+      <c r="B11" s="89"/>
+      <c r="C11" s="90" t="n">
         <v>100</v>
       </c>
-      <c r="D10" s="90" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91" t="s">
+      <c r="D11" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="91"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="92" t="s">
+      <c r="H11" s="93" t="s">
         <v>280</v>
       </c>
-      <c r="H10" s="91" t="s">
+      <c r="I11" s="92" t="s">
         <v>276</v>
       </c>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4765,8 +4801,8 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="1" sqref="J5:J6 F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4789,34 +4825,34 @@
         <v>6</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="I1" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="L1" s="32" t="s">
+      <c r="M1" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="M1" s="32" t="s">
-        <v>164</v>
-      </c>
       <c r="N1" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O1" s="32" t="s">
         <v>8</v>
@@ -4826,37 +4862,37 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="96.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="93" t="n">
+      <c r="A2" s="94" t="n">
         <v>26</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="87" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="C2" s="88" t="s">
+        <v>99</v>
       </c>
       <c r="D2" s="84" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E2" s="84" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="87" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="88" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="H2" s="87" t="s">
-        <v>170</v>
-      </c>
-      <c r="I2" s="87"/>
+      <c r="I2" s="88"/>
       <c r="J2" s="84"/>
       <c r="L2" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="M2" s="81" t="s">
         <v>171</v>
-      </c>
-      <c r="M2" s="81" t="s">
-        <v>172</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>281</v>
@@ -4886,20 +4922,20 @@
   </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="J5:J6 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.8097165991903"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.0971659919028"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.6356275303644"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="48.6315789473684"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="55.7004048582996"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="56.5587044534413"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -4920,7 +4956,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G1" s="38" t="s">
         <v>283</v>
@@ -4955,27 +4991,27 @@
         <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="G2" s="94" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="95" t="s">
         <v>290</v>
       </c>
-      <c r="H2" s="94" t="s">
+      <c r="H2" s="95" t="s">
         <v>291</v>
       </c>
-      <c r="I2" s="94" t="s">
+      <c r="I2" s="95" t="s">
         <v>292</v>
       </c>
       <c r="J2" s="10" t="s">
@@ -4985,10 +5021,10 @@
         <v>294</v>
       </c>
       <c r="L2" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>172</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>19</v>
@@ -5008,113 +5044,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.10526315789474"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="123.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="95" t="n">
-        <v>25</v>
-      </c>
-      <c r="B2" s="96" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="97" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="H2" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="J2" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="M2" s="43"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -5122,19 +5051,19 @@
   </sheetPr>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="J5:J6 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.1295546558704"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="67.2712550607288"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="68.3400809716599"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1023" min="16" style="0" width="9.10526315789474"/>
@@ -5155,31 +5084,31 @@
         <v>6</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H1" s="32" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="K1" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="L1" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="M1" s="32" t="s">
         <v>164</v>
-      </c>
-      <c r="M1" s="32" t="s">
-        <v>165</v>
       </c>
       <c r="N1" s="32" t="s">
         <v>8</v>
@@ -5199,34 +5128,34 @@
         <v>50</v>
       </c>
       <c r="D2" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="36" t="s">
         <v>166</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>167</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>51</v>
       </c>
       <c r="G2" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="H2" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="37" t="s">
+      <c r="J2" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="K2" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="L2" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="M2" s="37" t="s">
         <v>172</v>
-      </c>
-      <c r="M2" s="37" t="s">
-        <v>173</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>44</v>
@@ -5246,34 +5175,34 @@
         <v>50</v>
       </c>
       <c r="D3" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="36" t="s">
         <v>166</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>167</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>51</v>
       </c>
       <c r="G3" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="H3" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" s="37" t="s">
+      <c r="J3" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="K3" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="L3" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="M3" s="37" t="s">
         <v>172</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>173</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>44</v>
@@ -5300,28 +5229,28 @@
   </sheetPr>
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="J5:J6 A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="84.6234817813765"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="65.1295546558705"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.8825910931174"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="77.6599190283401"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="66.1983805668016"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.7368421052632"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="79.0526315789474"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="47.2388663967611"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -5341,46 +5270,46 @@
         <v>6</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I1" s="32" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="K1" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="L1" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="P1" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="L1" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="M1" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="N1" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="O1" s="32" t="s">
+      <c r="Q1" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="R1" s="32" t="s">
         <v>178</v>
-      </c>
-      <c r="P1" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q1" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="R1" s="32" t="s">
-        <v>179</v>
       </c>
       <c r="S1" s="32" t="s">
         <v>8</v>
@@ -5403,35 +5332,35 @@
         <v>28</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>172</v>
       </c>
       <c r="R2" s="19" t="n">
         <v>100</v>
@@ -5449,39 +5378,39 @@
         <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>185</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J3" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
       <c r="P3" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q3" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>172</v>
       </c>
       <c r="R3" s="19" t="n">
         <v>30</v>
@@ -5501,39 +5430,39 @@
         <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>185</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J4" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q4" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>172</v>
       </c>
       <c r="R4" s="19" t="n">
         <v>30</v>
@@ -5549,58 +5478,58 @@
       <c r="A5" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>86</v>
+      <c r="B5" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" s="21" t="s">
+      <c r="K5" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="K5" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M5" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="M5" s="21" t="s">
-        <v>170</v>
-      </c>
       <c r="N5" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O5" s="21"/>
       <c r="P5" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="R5" s="26" t="s">
         <v>190</v>
-      </c>
-      <c r="Q5" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="R5" s="26" t="s">
-        <v>191</v>
       </c>
       <c r="S5" s="22" t="s">
         <v>44</v>
       </c>
       <c r="T5" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U5" s="10"/>
     </row>
@@ -5608,11 +5537,11 @@
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="40" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="H6" s="40"/>
       <c r="I6" s="40" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
@@ -5620,13 +5549,13 @@
       <c r="M6" s="40"/>
       <c r="N6" s="40"/>
       <c r="O6" s="42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P6" s="43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q6" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R6" s="44"/>
       <c r="S6" s="43"/>
@@ -5650,8 +5579,8 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="J5:J6 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5662,14 +5591,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="38.9919028340081"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -5695,34 +5624,34 @@
         <v>6</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K1" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="L1" s="32" t="s">
-        <v>162</v>
-      </c>
       <c r="M1" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="N1" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="N1" s="32" t="s">
-        <v>176</v>
-      </c>
       <c r="O1" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P1" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q1" s="32" t="s">
         <v>8</v>
@@ -5744,25 +5673,25 @@
         <v>32</v>
       </c>
       <c r="F2" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="G2" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="H2" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="I2" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="I2" s="37" t="s">
-        <v>198</v>
-      </c>
       <c r="J2" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>169</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>170</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>100</v>
@@ -5792,18 +5721,18 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="J5:J6 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="77.0202429149798"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="78.3036437246964"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="61.3805668016194"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="174.497975708502"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="62.3441295546559"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="177.603238866397"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -5825,7 +5754,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G1" s="32" t="s">
         <v>8</v>
@@ -5834,7 +5763,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5854,7 +5783,7 @@
         <v>38</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>30</v>
@@ -5877,7 +5806,7 @@
         <v>82</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
@@ -5888,10 +5817,10 @@
         <v>24</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>93</v>
+        <v>96</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>37</v>
@@ -5900,7 +5829,7 @@
         <v>82</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>19</v>
@@ -5933,11 +5862,11 @@
       <c r="A6" s="52" t="n">
         <v>23</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>88</v>
+      <c r="B6" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>37</v>
@@ -5946,7 +5875,7 @@
         <v>75</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>19</v>
@@ -5969,7 +5898,7 @@
         <v>56</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>19</v>
@@ -6011,21 +5940,21 @@
   </sheetPr>
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="J5:J6 B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="54" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="54" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="54" width="61.3805668016194"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="54" width="56.0242914979757"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="54" width="75.7327935222672"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="54" width="80.3400809716599"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="54" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="54" width="62.3441295546559"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="54" width="56.8785425101215"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="54" width="77.1255060728745"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="54" width="81.7327935222672"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="54" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="54" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="54" width="102.728744939271"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="54" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="54" width="104.546558704453"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="54" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="54" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="54" width="13.3886639676113"/>
@@ -6050,37 +5979,37 @@
         <v>6</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H1" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="I1" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>206</v>
-      </c>
       <c r="K1" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L1" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="N1" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="M1" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="N1" s="32" t="s">
-        <v>164</v>
-      </c>
       <c r="O1" s="32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P1" s="32" t="s">
         <v>8</v>
@@ -6089,7 +6018,7 @@
         <v>9</v>
       </c>
       <c r="R1" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6100,34 +6029,34 @@
         <v>57</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>59</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F2" s="56" t="s">
         <v>60</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H2" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="I2" s="57" t="s">
         <v>209</v>
-      </c>
-      <c r="I2" s="57" t="s">
-        <v>210</v>
       </c>
       <c r="J2" s="57"/>
       <c r="K2" s="57"/>
       <c r="L2" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M2" s="0"/>
       <c r="N2" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O2" s="0"/>
       <c r="P2" s="54" t="s">
@@ -6148,28 +6077,28 @@
         <v>59</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F3" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="G3" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="H3" s="57" t="s">
-        <v>212</v>
-      </c>
       <c r="I3" s="57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J3" s="57"/>
       <c r="K3" s="57"/>
       <c r="L3" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M3" s="0"/>
       <c r="N3" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O3" s="0"/>
       <c r="P3" s="54" t="s">
@@ -6190,28 +6119,28 @@
         <v>59</v>
       </c>
       <c r="E4" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="F4" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="G4" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="H4" s="57" t="s">
-        <v>209</v>
-      </c>
       <c r="I4" s="57" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J4" s="57"/>
       <c r="K4" s="57"/>
       <c r="L4" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M4" s="0"/>
       <c r="N4" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O4" s="0"/>
       <c r="P4" s="54" t="s">
@@ -6232,28 +6161,28 @@
         <v>59</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F5" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="G5" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="H5" s="57" t="s">
+      <c r="I5" s="57" t="s">
         <v>212</v>
-      </c>
-      <c r="I5" s="57" t="s">
-        <v>213</v>
       </c>
       <c r="J5" s="57"/>
       <c r="K5" s="57"/>
       <c r="L5" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M5" s="0"/>
       <c r="N5" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O5" s="0"/>
       <c r="P5" s="54" t="s">
@@ -6274,28 +6203,28 @@
         <v>59</v>
       </c>
       <c r="E6" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="F6" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="G6" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="H6" s="57" t="s">
-        <v>209</v>
-      </c>
       <c r="I6" s="57" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J6" s="57"/>
       <c r="K6" s="57"/>
       <c r="L6" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M6" s="0"/>
       <c r="N6" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O6" s="0"/>
       <c r="P6" s="54" t="s">
@@ -6316,28 +6245,28 @@
         <v>59</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F7" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="G7" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>212</v>
-      </c>
       <c r="I7" s="57" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J7" s="57"/>
       <c r="K7" s="57"/>
       <c r="L7" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M7" s="0"/>
       <c r="N7" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O7" s="0"/>
       <c r="P7" s="54" t="s">
@@ -6358,26 +6287,26 @@
         <v>59</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G8" s="56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H8" s="59"/>
       <c r="I8" s="57" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J8" s="57"/>
       <c r="K8" s="60"/>
       <c r="L8" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M8" s="0"/>
       <c r="N8" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O8" s="0"/>
       <c r="P8" s="54" t="s">
@@ -6392,34 +6321,34 @@
         <v>78</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>59</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F9" s="51" t="s">
         <v>75</v>
       </c>
       <c r="G9" s="56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H9" s="0"/>
       <c r="I9" s="62" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J9" s="54" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K9" s="0"/>
       <c r="L9" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M9" s="0"/>
       <c r="N9" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O9" s="0"/>
       <c r="P9" s="54" t="s">
@@ -6428,10 +6357,10 @@
     </row>
     <row r="10" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="63" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C10" s="46" t="s">
         <v>79</v>
@@ -6440,26 +6369,26 @@
         <v>59</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F10" s="51" t="s">
         <v>75</v>
       </c>
       <c r="G10" s="62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H10" s="62"/>
       <c r="I10" s="57" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J10" s="62"/>
       <c r="K10" s="62"/>
       <c r="L10" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M10" s="64"/>
       <c r="N10" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O10" s="62"/>
       <c r="P10" s="62" t="s">
@@ -6501,27 +6430,27 @@
   </sheetPr>
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="J5:J6 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="60.8421052631579"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.7732793522267"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="65.1295546558705"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="93.1943319838057"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="68.8785425101215"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="50.1336032388664"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="61.8056680161943"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.8461538461538"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="66.1983805668016"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="94.8016194331984"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="70.1619433198381"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="50.9878542510121"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="35.4574898785425"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
@@ -6539,16 +6468,16 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -6557,37 +6486,37 @@
         <v>4</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>8</v>
@@ -6596,7 +6525,7 @@
         <v>9</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6604,50 +6533,50 @@
         <v>49</v>
       </c>
       <c r="B2" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="65" t="s">
         <v>228</v>
       </c>
-      <c r="G2" s="65" t="s">
-        <v>229</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="S2" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>172</v>
       </c>
       <c r="T2" s="10"/>
       <c r="U2" s="10" t="s">
         <v>44</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="W2" s="10"/>
     </row>
@@ -6656,51 +6585,51 @@
         <v>50</v>
       </c>
       <c r="B3" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="D3" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3" s="65" t="s">
         <v>233</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="G3" s="65" t="s">
+      <c r="H3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="K3" s="66" t="s">
         <v>235</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="K3" s="66" t="s">
-        <v>236</v>
       </c>
       <c r="L3" s="66"/>
       <c r="M3" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="N3" s="67" t="s">
         <v>237</v>
       </c>
-      <c r="N3" s="67" t="s">
-        <v>238</v>
-      </c>
       <c r="O3" s="67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="S3" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>172</v>
       </c>
       <c r="T3" s="10"/>
       <c r="U3" s="10" t="s">
@@ -6729,25 +6658,25 @@
   </sheetPr>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="J5:J6 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.8502024291498"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="68.0202429149798"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="69.0931174089069"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -6766,40 +6695,40 @@
         <v>6</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K1" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="M1" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="N1" s="32" t="s">
         <v>225</v>
-      </c>
-      <c r="M1" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="N1" s="32" t="s">
-        <v>226</v>
       </c>
       <c r="O1" s="32" t="s">
         <v>8</v>
       </c>
       <c r="P1" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6816,26 +6745,26 @@
         <v>17</v>
       </c>
       <c r="E2" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="G2" s="69" t="s">
         <v>241</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="H2" s="70" t="s">
         <v>242</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="I2" s="70" t="s">
         <v>243</v>
-      </c>
-      <c r="I2" s="70" t="s">
-        <v>244</v>
       </c>
       <c r="J2" s="70"/>
       <c r="K2" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>19</v>
@@ -6855,26 +6784,26 @@
         <v>17</v>
       </c>
       <c r="E3" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="F3" s="68" t="s">
-        <v>241</v>
-      </c>
       <c r="G3" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="H3" s="70" t="s">
         <v>246</v>
-      </c>
-      <c r="H3" s="70" t="s">
-        <v>247</v>
       </c>
       <c r="I3" s="70" t="n">
         <v>2</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>19</v>
@@ -6894,26 +6823,26 @@
         <v>17</v>
       </c>
       <c r="E4" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="F4" s="68" t="s">
-        <v>241</v>
-      </c>
       <c r="G4" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="H4" s="70" t="s">
         <v>248</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="I4" s="70" t="s">
         <v>249</v>
-      </c>
-      <c r="I4" s="70" t="s">
-        <v>250</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>19</v>
@@ -6937,16 +6866,16 @@
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="J5:J6 B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="65.5587044534413"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="66.6275303643725"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="32.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6967,10 +6896,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>251</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6978,19 +6907,19 @@
         <v>39</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C2" s="72" t="n">
         <v>0.5</v>
       </c>
       <c r="D2" s="73" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E2" s="74" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F2" s="75" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G2" s="75" t="n">
         <v>1</v>
@@ -7001,19 +6930,19 @@
         <v>40</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C3" s="76" t="n">
         <v>0.5</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E3" s="74" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F3" s="75" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G3" s="75" t="n">
         <v>1</v>
@@ -7024,19 +6953,19 @@
         <v>41</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C4" s="77" t="n">
         <v>0.5</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E4" s="74" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F4" s="75" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G4" s="75" t="n">
         <v>1</v>
@@ -7047,19 +6976,19 @@
         <v>42</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C5" s="76" t="n">
         <v>0.5</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F5" s="75" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G5" s="75" t="n">
         <v>1</v>
@@ -7070,19 +6999,19 @@
         <v>44</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C6" s="13" t="n">
         <v>2</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E6" s="74" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F6" s="75" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G6" s="75" t="n">
         <v>1</v>
@@ -7093,19 +7022,19 @@
         <v>45</v>
       </c>
       <c r="B7" s="72" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C7" s="77" t="n">
         <v>2</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E7" s="74" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F7" s="75" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G7" s="75" t="n">
         <v>1</v>
@@ -7116,19 +7045,19 @@
         <v>46</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C8" s="76" t="n">
         <v>2</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F8" s="75" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G8" s="75" t="n">
         <v>1</v>
@@ -7139,19 +7068,19 @@
         <v>47</v>
       </c>
       <c r="B9" s="72" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C9" s="77" t="n">
         <v>2</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F9" s="75" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G9" s="75" t="n">
         <v>1</v>
@@ -7164,13 +7093,13 @@
       <c r="B10" s="52"/>
       <c r="C10" s="52"/>
       <c r="D10" s="35" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>1</v>

--- a/Projects/CCNAYARMX/Especializado/Data/CCNayarTemplate_Especializado_1.1.xlsx
+++ b/Projects/CCNAYARMX/Especializado/Data/CCNayarTemplate_Especializado_1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -61,6 +61,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$69</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$69</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$69</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2011,28 +2012,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F29" activeCellId="1" sqref="J5:J6 F29"/>
+      <selection pane="bottomLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.914979757085"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="68.3400809716599"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="130.364372469636"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.3441295546559"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="68.8785425101215"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="131.542510121458"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1022" min="11" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
@@ -2097,7 +2098,7 @@
       </c>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="41.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="41.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -2123,7 +2124,7 @@
       </c>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -2149,7 +2150,7 @@
       </c>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="112" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
@@ -2201,7 +2202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="51" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
@@ -2227,7 +2228,7 @@
       </c>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
@@ -2253,7 +2254,7 @@
       </c>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
@@ -2279,7 +2280,7 @@
       </c>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
@@ -2301,7 +2302,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="48" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -2331,7 +2332,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="48" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
@@ -2353,7 +2354,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" customFormat="false" ht="145" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="145" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -2409,7 +2410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="125" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>65</v>
       </c>
@@ -2435,7 +2436,7 @@
       </c>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="32" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>12</v>
       </c>
@@ -2461,7 +2462,7 @@
       </c>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>13</v>
       </c>
@@ -2485,7 +2486,7 @@
       </c>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>14</v>
       </c>
@@ -2509,7 +2510,7 @@
       </c>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>15</v>
       </c>
@@ -2533,7 +2534,7 @@
       </c>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>16</v>
       </c>
@@ -2557,7 +2558,7 @@
       </c>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>17</v>
       </c>
@@ -2581,7 +2582,7 @@
       </c>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>18</v>
       </c>
@@ -2605,7 +2606,7 @@
       </c>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>19</v>
       </c>
@@ -2631,7 +2632,7 @@
       </c>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>76</v>
       </c>
@@ -2653,7 +2654,7 @@
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>20</v>
       </c>
@@ -2679,7 +2680,7 @@
       </c>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="14" t="n">
         <v>25</v>
       </c>
@@ -2735,7 +2736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="42" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="14" t="n">
         <v>22</v>
       </c>
@@ -2761,7 +2762,7 @@
       </c>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="14" t="n">
         <v>23</v>
       </c>
@@ -2787,7 +2788,7 @@
       </c>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="14" t="s">
         <v>94</v>
       </c>
@@ -2809,7 +2810,7 @@
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="56" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="14" t="n">
         <v>24</v>
       </c>
@@ -2835,7 +2836,7 @@
       </c>
       <c r="J31" s="10"/>
     </row>
-    <row r="32" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="14" t="n">
         <v>26</v>
       </c>
@@ -2887,7 +2888,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="19"/>
     </row>
-    <row r="34" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="14" t="n">
         <v>28</v>
       </c>
@@ -2919,7 +2920,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="14"/>
       <c r="B35" s="13" t="s">
         <v>103</v>
@@ -2937,7 +2938,7 @@
       <c r="I35" s="22"/>
       <c r="J35" s="22"/>
     </row>
-    <row r="36" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="14" t="n">
         <v>29</v>
       </c>
@@ -2969,7 +2970,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="14" t="n">
         <v>29</v>
       </c>
@@ -3001,7 +3002,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="14"/>
       <c r="B38" s="13" t="s">
         <v>109</v>
@@ -3019,7 +3020,7 @@
       <c r="I38" s="22"/>
       <c r="J38" s="22"/>
     </row>
-    <row r="39" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="n">
         <v>30</v>
       </c>
@@ -3051,7 +3052,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="14"/>
       <c r="B40" s="13" t="s">
         <v>112</v>
@@ -3069,7 +3070,7 @@
       <c r="I40" s="22"/>
       <c r="J40" s="22"/>
     </row>
-    <row r="41" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="36.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="14" t="n">
         <v>31</v>
       </c>
@@ -3101,7 +3102,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="36.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="14"/>
       <c r="B42" s="13" t="s">
         <v>115</v>
@@ -3119,7 +3120,7 @@
       <c r="I42" s="22"/>
       <c r="J42" s="22"/>
     </row>
-    <row r="43" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="36.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="14" t="n">
         <v>32</v>
       </c>
@@ -3151,7 +3152,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="36.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="14"/>
       <c r="B44" s="13" t="s">
         <v>117</v>
@@ -3169,7 +3170,7 @@
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
     </row>
-    <row r="45" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="36.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="14" t="n">
         <v>33</v>
       </c>
@@ -3201,7 +3202,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="36.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="14"/>
       <c r="B46" s="13" t="s">
         <v>119</v>
@@ -3219,7 +3220,7 @@
       <c r="I46" s="22"/>
       <c r="J46" s="22"/>
     </row>
-    <row r="47" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="36.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="14" t="n">
         <v>34</v>
       </c>
@@ -3251,7 +3252,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="36.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="14" t="n">
         <v>34</v>
       </c>
@@ -3283,7 +3284,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="36.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="14"/>
       <c r="B49" s="13" t="s">
         <v>121</v>
@@ -3301,7 +3302,7 @@
       <c r="I49" s="22"/>
       <c r="J49" s="22"/>
     </row>
-    <row r="50" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="36.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="14" t="n">
         <v>35</v>
       </c>
@@ -3333,7 +3334,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="36.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="14" t="n">
         <v>35</v>
       </c>
@@ -3365,7 +3366,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="36.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="14"/>
       <c r="B52" s="13" t="s">
         <v>123</v>
@@ -3383,7 +3384,7 @@
       <c r="I52" s="22"/>
       <c r="J52" s="22"/>
     </row>
-    <row r="53" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
         <v>36</v>
       </c>
@@ -3435,7 +3436,7 @@
       <c r="I54" s="24"/>
       <c r="J54" s="24"/>
     </row>
-    <row r="55" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="14" t="n">
         <v>38</v>
       </c>
@@ -3459,7 +3460,7 @@
       <c r="I55" s="22"/>
       <c r="J55" s="22"/>
     </row>
-    <row r="56" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="14" t="n">
         <v>39</v>
       </c>
@@ -3485,7 +3486,7 @@
       <c r="I56" s="26"/>
       <c r="J56" s="22"/>
     </row>
-    <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="14" t="n">
         <v>40</v>
       </c>
@@ -3511,7 +3512,7 @@
       <c r="I57" s="26"/>
       <c r="J57" s="22"/>
     </row>
-    <row r="58" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="14" t="n">
         <v>41</v>
       </c>
@@ -3537,7 +3538,7 @@
       <c r="I58" s="26"/>
       <c r="J58" s="22"/>
     </row>
-    <row r="59" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="14" t="n">
         <v>42</v>
       </c>
@@ -3563,7 +3564,7 @@
       <c r="I59" s="26"/>
       <c r="J59" s="22"/>
     </row>
-    <row r="60" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="14" t="n">
         <v>43</v>
       </c>
@@ -3587,7 +3588,7 @@
       <c r="I60" s="26"/>
       <c r="J60" s="22"/>
     </row>
-    <row r="61" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="14" t="n">
         <v>44</v>
       </c>
@@ -3613,7 +3614,7 @@
       <c r="I61" s="26"/>
       <c r="J61" s="22"/>
     </row>
-    <row r="62" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="14" t="n">
         <v>45</v>
       </c>
@@ -3639,7 +3640,7 @@
       <c r="I62" s="26"/>
       <c r="J62" s="22"/>
     </row>
-    <row r="63" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="14" t="n">
         <v>46</v>
       </c>
@@ -3665,7 +3666,7 @@
       <c r="I63" s="26"/>
       <c r="J63" s="22"/>
     </row>
-    <row r="64" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="14" t="n">
         <v>47</v>
       </c>
@@ -3713,7 +3714,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
         <v>49</v>
       </c>
@@ -3743,7 +3744,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
         <v>50</v>
       </c>
@@ -3817,7 +3818,13 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:J69"/>
+  <autoFilter ref="A1:J69">
+    <filterColumn colId="6">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Scoring"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="H16:H22"/>
   </mergeCells>
@@ -3840,17 +3847,17 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="J5:J6 D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.8137651821862"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="9" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.7125506072875"/>
@@ -3967,23 +3974,23 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="J5:J6 D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="54" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="54" width="61.8056680161943"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="54" width="55.5951417004049"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="54" width="66.1983805668016"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="54" width="94.8016194331984"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="54" width="66.1983805668016"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="54" width="98.4412955465587"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="54" width="71.8785425101215"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="54" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="54" width="62.3441295546559"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="54" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="54" width="66.8421052631579"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="54" width="95.6558704453441"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="54" width="66.8421052631579"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="54" width="99.2995951417004"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="54" width="72.5182186234818"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="54" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="54" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="54" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="54" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="54" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="54" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="54" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="54" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="54" width="11.6761133603239"/>
@@ -4398,22 +4405,22 @@
   </sheetPr>
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J5:J6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.8785425101215"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="38.3481781376518"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="114.939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="77.1255060728745"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="115.902834008097"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="77.7692307692308"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6761133603239"/>
@@ -4563,8 +4570,8 @@
     </row>
     <row r="5" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
+      <c r="B5" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>0</v>
@@ -4802,7 +4809,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="1" sqref="J5:J6 F8"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4923,19 +4930,19 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="J5:J6 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.1336032388664"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.9554655870445"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.7408906882591"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.4898785425101"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="56.5587044534413"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="56.9878542510121"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -5052,18 +5059,18 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="J5:J6 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.1295546558704"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.5587044534413"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="68.3400809716599"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="68.8785425101215"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1023" min="16" style="0" width="9.10526315789474"/>
@@ -5230,27 +5237,27 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="J5:J6 A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="84.6234817813765"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="85.3724696356275"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="66.1983805668016"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.7368421052632"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="79.0526315789474"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.4574898785425"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="66.8421052631579"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.2753036437247"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="47.5627530364373"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -5580,7 +5587,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="J5:J6 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5591,14 +5598,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="39.3117408906883"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -5722,17 +5729,17 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="J5:J6 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="78.3036437246964"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="79.0526315789474"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="62.3441295546559"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="177.603238866397"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="62.8785425101215"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="179.21052631579"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -5941,20 +5948,20 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="J5:J6 B10"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="54" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="54" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="54" width="62.3441295546559"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="54" width="56.8785425101215"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="54" width="77.1255060728745"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="54" width="81.7327935222672"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="54" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="54" width="62.8785425101215"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="54" width="57.417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="54" width="77.7692307692308"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="54" width="82.4817813765182"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="54" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="54" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="54" width="104.546558704453"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="54" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="54" width="105.51012145749"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="54" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="54" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="54" width="13.3886639676113"/>
@@ -6431,26 +6438,26 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="J5:J6 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="61.8056680161943"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.8461538461538"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="66.1983805668016"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="94.8016194331984"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="70.1619433198381"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="50.9878542510121"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="62.3441295546559"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.3805668016194"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="66.8421052631579"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="95.6558704453441"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="70.7004048582996"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="51.417004048583"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="35.6720647773279"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
@@ -6659,24 +6666,24 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="J5:J6 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.17004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="69.0931174089069"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="69.7327935222672"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -6867,15 +6874,15 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="J5:J6 B10"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="66.6275303643725"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="67.2712550607288"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="32.3481781376518"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/Projects/CCNAYARMX/Especializado/Data/CCNayarTemplate_Especializado_1.1.xlsx
+++ b/Projects/CCNAYARMX/Especializado/Data/CCNayarTemplate_Especializado_1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -62,6 +62,9 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$69</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$69</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$69</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2017,23 +2020,23 @@
   </sheetPr>
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="D64" activeCellId="0" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.3441295546559"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="68.8785425101215"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="131.542510121458"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.8461538461538"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="70.7004048582996"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="135.076923076923"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1022" min="11" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
@@ -2071,7 +2074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="true" ht="61.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="7" customFormat="true" ht="61.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -2176,7 +2179,7 @@
       </c>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
@@ -2384,7 +2387,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="125" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>11</v>
       </c>
@@ -2680,7 +2683,7 @@
       </c>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="14" t="n">
         <v>25</v>
       </c>
@@ -2708,7 +2711,7 @@
       </c>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="39" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>21</v>
       </c>
@@ -2866,7 +2869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="14" t="n">
         <v>27</v>
       </c>
@@ -3414,7 +3417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
         <v>37</v>
       </c>
@@ -3538,7 +3541,7 @@
       <c r="I58" s="26"/>
       <c r="J58" s="22"/>
     </row>
-    <row r="59" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="14" t="n">
         <v>42</v>
       </c>
@@ -3666,7 +3669,7 @@
       <c r="I63" s="26"/>
       <c r="J63" s="22"/>
     </row>
-    <row r="64" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="14" t="n">
         <v>47</v>
       </c>
@@ -3774,7 +3777,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
         <v>51</v>
       </c>
@@ -3796,7 +3799,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
         <v>52</v>
       </c>
@@ -3819,10 +3822,12 @@
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:J69">
-    <filterColumn colId="6">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Scoring"/>
-      </customFilters>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Plataformas-Especializado"/>
+        <filter val="La plataforma esta libre de objetos diferentes al portafolio valido-Hidratacion?-Especializado"/>
+        <filter val="La plataforma esta libre de objetos diferentes al portafolio valido-Nutricion?-Especializado"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="1">
@@ -3853,11 +3858,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.0607287449393"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.0283400809717"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.2388663967611"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="9" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.7125506072875"/>
@@ -3979,18 +3984,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="54" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="54" width="62.3441295546559"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="54" width="56.0242914979757"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="54" width="66.8421052631579"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="54" width="95.6558704453441"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="54" width="66.8421052631579"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="54" width="99.2995951417004"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="54" width="72.5182186234818"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="54" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="54" width="63.9514170040486"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="54" width="57.417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="54" width="68.5546558704453"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="54" width="98.2267206477733"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="54" width="68.5546558704453"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="54" width="101.975708502024"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="54" width="74.3400809716599"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="54" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="54" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="54" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="54" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="54" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="54" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="54" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="54" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="54" width="11.6761133603239"/>
@@ -4405,22 +4410,22 @@
   </sheetPr>
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.914979757085"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="39.3117408906883"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="115.902834008097"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="77.7692307692308"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="119.008097165992"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="79.8016194331984"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6761133603239"/>
@@ -4809,7 +4814,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="N58" activeCellId="0" sqref="N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4936,13 +4941,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.0971659919028"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.0647773279352"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.8097165991903"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="56.9878542510121"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.3481781376518"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="58.5951417004049"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -5058,19 +5063,19 @@
   </sheetPr>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.5587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.9514170040486"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="68.8785425101215"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="70.7004048582996"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1023" min="16" style="0" width="9.10526315789474"/>
@@ -5243,21 +5248,21 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="85.3724696356275"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="87.6234817813765"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="66.8421052631579"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.2753036437247"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="79.6963562753036"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="68.5546558704453"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.5587044534413"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="81.7327935222672"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="48.8461538461539"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -5598,14 +5603,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="40.2753036437247"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -5728,18 +5733,18 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="79.0526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="80.9838056680162"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="62.8785425101215"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="179.21052631579"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="184.137651821862"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -5947,21 +5952,21 @@
   </sheetPr>
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="54" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="54" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="54" width="62.8785425101215"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="54" width="57.417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="54" width="77.7692307692308"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="54" width="82.4817813765182"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="54" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="54" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="54" width="58.914979757085"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="54" width="79.8016194331984"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="54" width="84.6234817813765"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="54" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="54" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="54" width="105.51012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="54" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="54" width="108.404858299595"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="54" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="54" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="54" width="13.3886639676113"/>
@@ -6444,20 +6449,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="62.3441295546559"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.3805668016194"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="66.8421052631579"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="95.6558704453441"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="70.7004048582996"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="51.417004048583"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="63.9514170040486"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.7732793522267"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="68.5546558704453"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="98.2267206477733"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="72.5182186234818"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="52.7044534412956"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="36.6356275303644"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
@@ -6671,19 +6676,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="69.7327935222672"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="71.4493927125506"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -6871,18 +6876,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="67.2712550607288"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="68.8785425101215"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7024,7 +7029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="77" t="n">
         <v>45</v>
       </c>
@@ -7038,7 +7043,7 @@
         <v>146</v>
       </c>
       <c r="E7" s="74" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F7" s="75" t="s">
         <v>253</v>
@@ -7047,7 +7052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="76" t="n">
         <v>46</v>
       </c>
@@ -7061,7 +7066,7 @@
         <v>146</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F8" s="75" t="s">
         <v>254</v>
@@ -7114,6 +7119,9 @@
       <c r="H10" s="7"/>
       <c r="I10" s="35"/>
       <c r="J10" s="60"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCNAYARMX/Especializado/Data/CCNayarTemplate_Especializado_1.1.xlsx
+++ b/Projects/CCNAYARMX/Especializado/Data/CCNayarTemplate_Especializado_1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -65,6 +65,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$69</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$69</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$69</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1220,7 +1221,7 @@
     <t xml:space="preserve">Product sub_category</t>
   </si>
   <si>
-    <t xml:space="preserve">Product Facings Target</t>
+    <t xml:space="preserve">Unique Products Targets</t>
   </si>
   <si>
     <t xml:space="preserve">numerator_entity</t>
@@ -2023,20 +2024,20 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D64" activeCellId="0" sqref="D64"/>
+      <selection pane="bottomLeft" activeCell="D64" activeCellId="1" sqref="K1 D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.8461538461538"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.0283400809717"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="70.7004048582996"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="135.076923076923"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.3805668016194"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="71.2348178137652"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="136.36032388664"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1022" min="11" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
@@ -3852,17 +3853,17 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="K1 D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.2388663967611"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6720647773279"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="9" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.7125506072875"/>
@@ -3979,23 +3980,23 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="K1 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="54" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="54" width="63.9514170040486"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="54" width="57.417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="54" width="68.5546558704453"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="54" width="98.2267206477733"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="54" width="68.5546558704453"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="54" width="101.975708502024"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="54" width="74.3400809716599"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="54" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="54" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="54" width="57.9514170040486"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="54" width="69.0931174089069"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="54" width="99.085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="54" width="69.0931174089069"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="54" width="102.939271255061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="54" width="74.9838056680162"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="54" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="54" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="54" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="54" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="54" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="54" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="54" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="54" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="54" width="11.6761133603239"/>
@@ -4410,22 +4411,22 @@
   </sheetPr>
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="1" sqref="K1 C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.914979757085"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.3441295546559"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="39.6356275303644"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="119.008097165992"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="79.8016194331984"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="120.080971659919"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="80.4453441295547"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6761133603239"/>
@@ -4814,7 +4815,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N58" activeCellId="0" sqref="N58"/>
+      <selection pane="topLeft" activeCell="N58" activeCellId="1" sqref="K1 N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4934,24 +4935,24 @@
   </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.5263157894737"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.3481781376518"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="58.5951417004049"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.7732793522267"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="59.0242914979757"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="27.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -5064,18 +5065,18 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="K1 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.9514170040486"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.4858299595142"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="70.7004048582996"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="71.2348178137652"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1023" min="16" style="0" width="9.10526315789474"/>
@@ -5242,27 +5243,27 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="K1 A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="87.6234817813765"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="88.4817813765182"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="68.5546558704453"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.5587044534413"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="81.7327935222672"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.6356275303644"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="69.0931174089069"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.9878542510121"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="82.4817813765182"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="49.2753036437247"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -5592,7 +5593,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="K1 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5603,14 +5604,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="40.5991902834008"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -5734,17 +5735,17 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="K1 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="80.9838056680162"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="81.7327935222672"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="64.5910931174089"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="184.137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="65.1295546558705"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="185.744939271255"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -5953,20 +5954,20 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+      <selection pane="topLeft" activeCell="J9" activeCellId="1" sqref="K1 J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="54" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="54" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="54" width="64.5910931174089"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="54" width="58.914979757085"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="54" width="79.8016194331984"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="54" width="84.6234817813765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="54" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="54" width="65.1295546558705"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="54" width="59.3441295546559"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="54" width="80.4453441295547"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="54" width="85.3724696356275"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="54" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="54" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="54" width="108.404858299595"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="54" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="54" width="109.368421052632"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="54" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="54" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="54" width="13.3886639676113"/>
@@ -6443,26 +6444,26 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="K1 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="63.9514170040486"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.7732793522267"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="68.5546558704453"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="98.2267206477733"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="72.5182186234818"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="52.7044534412956"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="60.3076923076923"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="69.0931174089069"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="99.085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="73.1619433198381"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="53.1295546558704"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="36.9554655870445"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
@@ -6671,24 +6672,24 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="K1 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="71.4493927125506"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="72.0890688259109"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -6879,15 +6880,15 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="1" sqref="K1 E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="32.0283400809717"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="68.8785425101215"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="69.5182186234818"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="33.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
